--- a/Day 2/results.xlsx
+++ b/Day 2/results.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Result with diagram" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="data__Radar_chart" localSheetId="0" hidden="1">'Radar chart'!$A$1:$F$3</definedName>
-    <definedName name="data__Trend_chart" localSheetId="1" hidden="1">'Trand chart'!$A$1:$L$3</definedName>
+    <definedName name="data__Radar_chart" localSheetId="0" hidden="1">'Radar chart'!$A$1:$F$2</definedName>
+    <definedName name="data__Trend_chart" localSheetId="1" hidden="1">'Trand chart'!$A$1:$L$2</definedName>
     <definedName name="data__Trend_chart_with_daytime" localSheetId="4" hidden="1">'trand chart with daytime'!$A$1:$M$3</definedName>
     <definedName name="data__Trend_chart_with_plane" localSheetId="2" hidden="1">'Trand chart with plane'!$A$1:$M$6</definedName>
     <definedName name="data__Trend_chart_with_weather" localSheetId="3" hidden="1">'Trand chart with weather'!$A$1:$M$3</definedName>
-    <definedName name="data_Name" localSheetId="5" hidden="1">'Result with diagram'!$C$2:$C$4</definedName>
+    <definedName name="data_Name" localSheetId="5" hidden="1">'Result with diagram'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -50,15 +50,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Спокойствие</t>
-  </si>
-  <si>
-    <t>Физическое сост#</t>
-  </si>
-  <si>
-    <t>Психологическое сост#</t>
   </si>
   <si>
     <t>Скорость реакции</t>
@@ -136,14 +130,34 @@
     <t>Оценка за тренажеры</t>
   </si>
   <si>
-    <t>Номер пилота</t>
+    <t>номер пилота</t>
+  </si>
+  <si>
+    <t>Диаграммы трендов.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Физическое состояние</t>
+  </si>
+  <si>
+    <t>Психологическое состояние</t>
+  </si>
+  <si>
+    <t>01#01#2017</t>
+  </si>
+  <si>
+    <t>По результатам лепестковой диаграммы строим тренд оценки летного состава за год в зависимости от скорости реакции, своевременности и спокойствии во время полета.  
+Средняя оценка показателей пилота высчитывается как сумма результатов показателей, деленная на число показателей. 
+Она позволяет оценить прогресс пилота.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +165,30 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,8 +211,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -203,6 +250,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Поведенческая</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t> модель за декабдь 2017</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -221,22 +298,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Физическое сост#</c:v>
+                  <c:v>Оценка за тренажеры</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Психологическое сост#</c:v>
+                  <c:v>Скорость реакции</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Оценка за тренажеры</c:v>
+                  <c:v>Спокойствие</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Скорость реакции</c:v>
+                  <c:v>Своевременность</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Спокойствие</c:v>
+                  <c:v>Физическое состояние</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Своевременность</c:v>
+                  <c:v>Психологическое состояние</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -248,22 +325,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90.6</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>55.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34</c:v>
+                  <c:v>90.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.6</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,11 +354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="632100352"/>
-        <c:axId val="178280064"/>
+        <c:axId val="152488448"/>
+        <c:axId val="151800640"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="632100352"/>
+        <c:axId val="152488448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -291,7 +368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178280064"/>
+        <c:crossAx val="151800640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -299,7 +376,205 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178280064"/>
+        <c:axId val="151800640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152488448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Тренд оценки по поведеньческой модели </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0">
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart'!$A$1:$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart'!$A$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="152489472"/>
+        <c:axId val="151802368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="152489472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151802368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151802368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -312,11 +587,1315 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="632100352"/>
+        <c:crossAx val="152489472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
-        <c:minorUnit val="4"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Тренд оценки по поведенческой модели в зависимости от самолета</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>самолет 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with plane'!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>самолет 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with plane'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>самолет 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with plane'!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>самолет 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with plane'!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>самолет 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with plane'!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153601536"/>
+        <c:axId val="151804096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153601536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151804096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151804096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153601536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Тренд оценки по поведенческой модели в зависимости от погодных условий</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with weather'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>хорошие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with weather'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with weather'!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trand chart with weather'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>плохие</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Trand chart with weather'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trand chart with weather'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153603072"/>
+        <c:axId val="153764416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153603072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153764416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153764416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153603072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>Тренд оценки по поведенческой модели в зависимости от времени суток</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400">
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trand chart with daytime'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>день</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'trand chart with daytime'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trand chart with daytime'!$B$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'trand chart with daytime'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ночь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'trand chart with daytime'!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>январь</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>февраль</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>март</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>апрель</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>май</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>июнь</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>июль</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>август</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>сентябрь</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>октябрь</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ноябрь</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>декабрь</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'trand chart with daytime'!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="153603584"/>
+        <c:axId val="153766720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153603584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153766720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153766720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="153603584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -340,20 +1919,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2156460</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -368,19 +1947,139 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Radar chart$'" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
+  <queryTableRefresh nextId="9">
     <queryTableFields count="6">
-      <queryTableField id="1" name="Физическое сост#" tableColumnId="1"/>
-      <queryTableField id="2" name="Психологическое сост#" tableColumnId="2"/>
       <queryTableField id="3" name="Оценка за тренажеры" tableColumnId="3"/>
       <queryTableField id="4" name="Скорость реакции" tableColumnId="4"/>
       <queryTableField id="5" name="Спокойствие" tableColumnId="5"/>
       <queryTableField id="6" name="Своевременность" tableColumnId="6"/>
+      <queryTableField id="7" name="Физическое состояние" tableColumnId="1"/>
+      <queryTableField id="8" name="Психологическое состояние" tableColumnId="2"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -388,9 +2087,8 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart$'" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="13">
+  <queryTableRefresh nextId="14">
     <queryTableFields count="12">
-      <queryTableField id="1" name="январь" tableColumnId="1"/>
       <queryTableField id="2" name="февраль" tableColumnId="2"/>
       <queryTableField id="3" name="март" tableColumnId="3"/>
       <queryTableField id="4" name="апрель" tableColumnId="4"/>
@@ -402,6 +2100,7 @@
       <queryTableField id="10" name="октябрь" tableColumnId="10"/>
       <queryTableField id="11" name="ноябрь" tableColumnId="11"/>
       <queryTableField id="12" name="декабрь" tableColumnId="12"/>
+      <queryTableField id="13" name="01#01#2017" tableColumnId="1"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -484,25 +2183,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_data__Radar_chart" displayName="Таблица_data__Radar_chart" ref="A1:F3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_data__Radar_chart" displayName="Таблица_data__Radar_chart" ref="A1:F2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="Физическое сост#" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="Психологическое сост#" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="Оценка за тренажеры" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="Скорость реакции" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="Спокойствие" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="Своевременность" queryTableFieldId="6"/>
+    <tableColumn id="1" uniqueName="1" name="Физическое состояние" queryTableFieldId="7"/>
+    <tableColumn id="2" uniqueName="2" name="Психологическое состояние" queryTableFieldId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица_data__Trend_chart" displayName="Таблица_data__Trend_chart" ref="A1:L3" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица_data__Trend_chart" displayName="Таблица_data__Trend_chart" ref="A1:L2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L2"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="1" name="январь" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="февраль" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="март" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="апрель" queryTableFieldId="4"/>
@@ -514,6 +2212,7 @@
     <tableColumn id="10" uniqueName="10" name="октябрь" queryTableFieldId="10"/>
     <tableColumn id="11" uniqueName="11" name="ноябрь" queryTableFieldId="11"/>
     <tableColumn id="12" uniqueName="12" name="декабрь" queryTableFieldId="12"/>
+    <tableColumn id="1" uniqueName="1" name="01#01#2017" queryTableFieldId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,10 +2285,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица_data_Name" displayName="Таблица_data_Name" ref="C2:C4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="C2:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица_data_Name" displayName="Таблица_data_Name" ref="C2:C3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="C2:C3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="Номер пилота" queryTableFieldId="1"/>
+    <tableColumn id="1" uniqueName="1" name="номер пилота" queryTableFieldId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -890,59 +2589,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>90.6</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>21</v>
       </c>
       <c r="C2">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>55.6</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>90.6</v>
       </c>
       <c r="F2">
-        <v>55.6</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -958,99 +2659,100 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>51</v>
+      </c>
+      <c r="J2">
+        <v>79</v>
+      </c>
+      <c r="K2">
+        <v>54.7</v>
+      </c>
+      <c r="L2">
         <v>22.6</v>
-      </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>66</v>
-      </c>
-      <c r="D2">
-        <v>71</v>
-      </c>
-      <c r="E2">
-        <v>75</v>
-      </c>
-      <c r="F2">
-        <v>70</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="H2">
-        <v>55</v>
-      </c>
-      <c r="I2">
-        <v>58</v>
-      </c>
-      <c r="J2">
-        <v>51</v>
-      </c>
-      <c r="K2">
-        <v>79</v>
-      </c>
-      <c r="L2">
-        <v>54.7</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +2767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1086,48 +2790,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1168,7 +2872,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1209,7 +2913,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>42.6</v>
@@ -1250,7 +2954,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>52.6</v>
@@ -1291,7 +2995,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>62.6</v>
@@ -1342,7 +3046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1363,48 +3069,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1445,7 +3151,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1496,69 +3202,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -1599,7 +3307,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -1648,32 +3356,64 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C3"/>
+  <dimension ref="C2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>123</v>
       </c>
+    </row>
+    <row r="4" spans="3:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="29" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Day 2/results.xlsx
+++ b/Day 2/results.xlsx
@@ -18,7 +18,7 @@
     <definedName name="data__Radar_chart" localSheetId="0" hidden="1">'Radar chart'!$A$1:$F$2</definedName>
     <definedName name="data__Trend_chart" localSheetId="1" hidden="1">'Trand chart'!$A$1:$L$2</definedName>
     <definedName name="data__Trend_chart_with_daytime" localSheetId="4" hidden="1">'trand chart with daytime'!$A$1:$M$3</definedName>
-    <definedName name="data__Trend_chart_with_plane" localSheetId="2" hidden="1">'Trand chart with plane'!$A$1:$M$6</definedName>
+    <definedName name="data__Trend_chart_with_plane" localSheetId="2" hidden="1">'Trand chart with plane'!$A$1:$M$3</definedName>
     <definedName name="data__Trend_chart_with_weather" localSheetId="3" hidden="1">'Trand chart with weather'!$A$1:$M$3</definedName>
     <definedName name="data_Name" localSheetId="5" hidden="1">'Result with diagram'!$C$2:$C$3</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t>Спокойствие</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>самолет 2</t>
-  </si>
-  <si>
-    <t>самолет 3</t>
-  </si>
-  <si>
-    <t>самолет 4</t>
-  </si>
-  <si>
-    <t>самолет 5</t>
   </si>
   <si>
     <t>хорошие</t>
@@ -325,22 +316,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.6</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.6</c:v>
+                  <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,11 +345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152488448"/>
-        <c:axId val="151800640"/>
+        <c:axId val="602470912"/>
+        <c:axId val="177163072"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="152488448"/>
+        <c:axId val="602470912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151800640"/>
+        <c:crossAx val="177163072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -376,7 +367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151800640"/>
+        <c:axId val="177163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -389,7 +380,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152488448"/>
+        <c:crossAx val="602470912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -553,11 +544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152489472"/>
-        <c:axId val="151802368"/>
+        <c:axId val="602471936"/>
+        <c:axId val="177164800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152489472"/>
+        <c:axId val="602471936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151802368"/>
+        <c:crossAx val="177164800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -574,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151802368"/>
+        <c:axId val="177164800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -587,7 +578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152489472"/>
+        <c:crossAx val="602471936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -863,330 +854,6 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Trand chart with plane'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>самолет 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>январь</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>февраль</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>март</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>апрель</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>июнь</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>июль</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>август</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>сентябрь</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>октябрь</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ноябрь</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>декабрь</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Trand chart with plane'!$B$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>42.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Trand chart with plane'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>самолет 4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>январь</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>февраль</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>март</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>апрель</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>июнь</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>июль</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>август</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>сентябрь</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>октябрь</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ноябрь</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>декабрь</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Trand chart with plane'!$B$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Trand chart with plane'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>самолет 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Trand chart with plane'!$B$1:$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>январь</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>февраль</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>март</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>апрель</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>май</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>июнь</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>июль</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>август</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>сентябрь</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>октябрь</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ноябрь</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>декабрь</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Trand chart with plane'!$B$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>62.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1197,11 +864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153601536"/>
-        <c:axId val="151804096"/>
+        <c:axId val="603182592"/>
+        <c:axId val="177166528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153601536"/>
+        <c:axId val="603182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151804096"/>
+        <c:crossAx val="177166528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151804096"/>
+        <c:axId val="177166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1231,7 +898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153601536"/>
+        <c:crossAx val="603182592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1527,11 +1194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153603072"/>
-        <c:axId val="153764416"/>
+        <c:axId val="603183616"/>
+        <c:axId val="621412928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153603072"/>
+        <c:axId val="603183616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,7 +1207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153764416"/>
+        <c:crossAx val="621412928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1548,7 +1215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153764416"/>
+        <c:axId val="621412928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1561,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153603072"/>
+        <c:crossAx val="603183616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1857,11 +1524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153603584"/>
-        <c:axId val="153766720"/>
+        <c:axId val="603184640"/>
+        <c:axId val="621415232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153603584"/>
+        <c:axId val="603184640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153766720"/>
+        <c:crossAx val="621415232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1878,7 +1545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153766720"/>
+        <c:axId val="621415232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1891,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153603584"/>
+        <c:crossAx val="603184640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1920,15 +1587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2156460</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>2019300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2219,8 +1886,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица_data__Trend_chart_with_plane" displayName="Таблица_data__Trend_chart_with_plane" ref="A1:M6" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица_data__Trend_chart_with_plane" displayName="Таблица_data__Trend_chart_with_plane" ref="A1:M3" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M3"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="1" name="F1" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="январь" queryTableFieldId="2"/>
@@ -2608,7 +2275,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2620,30 +2287,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>55.6</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>90.6</v>
+        <v>20.6</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -2714,7 +2381,7 @@
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2765,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2911,129 +2578,6 @@
         <v>54.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>42.6</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>64</v>
-      </c>
-      <c r="E4">
-        <v>73</v>
-      </c>
-      <c r="F4">
-        <v>75</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>60</v>
-      </c>
-      <c r="I4">
-        <v>55</v>
-      </c>
-      <c r="J4">
-        <v>58</v>
-      </c>
-      <c r="K4">
-        <v>51</v>
-      </c>
-      <c r="L4">
-        <v>79</v>
-      </c>
-      <c r="M4">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>52.6</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>74</v>
-      </c>
-      <c r="F5">
-        <v>75</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-      <c r="I5">
-        <v>55</v>
-      </c>
-      <c r="J5">
-        <v>58</v>
-      </c>
-      <c r="K5">
-        <v>51</v>
-      </c>
-      <c r="L5">
-        <v>79</v>
-      </c>
-      <c r="M5">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>62.6</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>75</v>
-      </c>
-      <c r="F6">
-        <v>75</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>30</v>
-      </c>
-      <c r="I6">
-        <v>55</v>
-      </c>
-      <c r="J6">
-        <v>58</v>
-      </c>
-      <c r="K6">
-        <v>51</v>
-      </c>
-      <c r="L6">
-        <v>79</v>
-      </c>
-      <c r="M6">
-        <v>54.7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3047,7 +2591,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3110,7 +2654,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>22.6</v>
@@ -3151,7 +2695,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>32.6</v>
@@ -3359,7 +2903,7 @@
   <dimension ref="C2:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3372,10 +2916,10 @@
   <sheetData>
     <row r="2" spans="3:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
@@ -3385,12 +2929,12 @@
     </row>
     <row r="4" spans="3:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F4" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="5:5" ht="18" x14ac:dyDescent="0.35">

--- a/Day 2/results.xlsx
+++ b/Day 2/results.xlsx
@@ -28,22 +28,22 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data Name$.odc" keepAlive="1" name="data Name$" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="1" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data Name$.odc" keepAlive="1" name="data Name$" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="Name$" commandType="3"/>
   </connection>
-  <connection id="2" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Radar chart$'.odc" keepAlive="1" name="data 'Radar chart$'" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="2" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Radar chart$'.odc" keepAlive="1" name="data 'Radar chart$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Radar chart$'" commandType="3"/>
   </connection>
-  <connection id="3" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with daytime$'.odc" keepAlive="1" name="data 'Trend chart with daytime$'" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with daytime$'.odc" keepAlive="1" name="data 'Trend chart with daytime$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart with daytime$'" commandType="3"/>
   </connection>
-  <connection id="4" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with plane$'.odc" keepAlive="1" name="data 'Trend chart with plane$'" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="4" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with plane$'.odc" keepAlive="1" name="data 'Trend chart with plane$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart with plane$'" commandType="3"/>
   </connection>
-  <connection id="5" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with weather$'.odc" keepAlive="1" name="data 'Trend chart with weather$'" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="5" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with weather$'.odc" keepAlive="1" name="data 'Trend chart with weather$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart with weather$'" commandType="3"/>
   </connection>
-  <connection id="6" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart$'.odc" keepAlive="1" name="data 'Trend chart$'" type="5" refreshedVersion="4" background="1" saveData="1">
+  <connection id="6" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart$'.odc" keepAlive="1" name="data 'Trend chart$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart$'" commandType="3"/>
   </connection>
 </connections>
@@ -121,19 +121,10 @@
     <t>Оценка за тренажеры</t>
   </si>
   <si>
-    <t>номер пилота</t>
-  </si>
-  <si>
     <t>Диаграммы трендов.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Физическое состояние</t>
-  </si>
-  <si>
-    <t>Психологическое состояние</t>
   </si>
   <si>
     <t>01#01#2017</t>
@@ -142,6 +133,15 @@
     <t>По результатам лепестковой диаграммы строим тренд оценки летного состава за год в зависимости от скорости реакции, своевременности и спокойствии во время полета.  
 Средняя оценка показателей пилота высчитывается как сумма результатов показателей, деленная на число показателей. 
 Она позволяет оценить прогресс пилота.</t>
+  </si>
+  <si>
+    <t>Психологическое сост#</t>
+  </si>
+  <si>
+    <t>Физическое сост#</t>
+  </si>
+  <si>
+    <t>Id пилота</t>
   </si>
 </sst>
 </file>
@@ -301,10 +301,10 @@
                   <c:v>Своевременность</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Физическое состояние</c:v>
+                  <c:v>Психологическое сост#</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Психологическое состояние</c:v>
+                  <c:v>Физическое сост#</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -316,22 +316,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>63.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.6</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.5</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,11 +345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="602470912"/>
-        <c:axId val="177163072"/>
+        <c:axId val="616888320"/>
+        <c:axId val="616450880"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="602470912"/>
+        <c:axId val="616888320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -359,7 +359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177163072"/>
+        <c:crossAx val="616450880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -367,7 +367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177163072"/>
+        <c:axId val="616450880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -380,7 +380,7 @@
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602470912"/>
+        <c:crossAx val="616888320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -544,11 +544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602471936"/>
-        <c:axId val="177164800"/>
+        <c:axId val="616889856"/>
+        <c:axId val="616452608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="602471936"/>
+        <c:axId val="616889856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,7 +557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177164800"/>
+        <c:crossAx val="616452608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -565,7 +565,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177164800"/>
+        <c:axId val="616452608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -578,7 +578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602471936"/>
+        <c:crossAx val="616889856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -864,11 +864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603182592"/>
-        <c:axId val="177166528"/>
+        <c:axId val="617607680"/>
+        <c:axId val="616454336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603182592"/>
+        <c:axId val="617607680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177166528"/>
+        <c:crossAx val="616454336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177166528"/>
+        <c:axId val="616454336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -898,7 +898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603182592"/>
+        <c:crossAx val="617607680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1194,11 +1194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603183616"/>
-        <c:axId val="621412928"/>
+        <c:axId val="617608704"/>
+        <c:axId val="618201664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603183616"/>
+        <c:axId val="617608704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="621412928"/>
+        <c:crossAx val="618201664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1215,7 +1215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621412928"/>
+        <c:axId val="618201664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1228,7 +1228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603183616"/>
+        <c:crossAx val="617608704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1524,11 +1524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603184640"/>
-        <c:axId val="621415232"/>
+        <c:axId val="617609728"/>
+        <c:axId val="618203968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="603184640"/>
+        <c:axId val="617609728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="621415232"/>
+        <c:crossAx val="618203968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1545,7 +1545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="621415232"/>
+        <c:axId val="618203968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1558,7 +1558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603184640"/>
+        <c:crossAx val="617609728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1592,7 +1592,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2019300</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1616,13 +1616,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -1646,13 +1646,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1676,13 +1676,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -1706,13 +1706,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -1738,22 +1738,22 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Radar chart$'" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Radar chart$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="11">
     <queryTableFields count="6">
       <queryTableField id="3" name="Оценка за тренажеры" tableColumnId="3"/>
       <queryTableField id="4" name="Скорость реакции" tableColumnId="4"/>
       <queryTableField id="5" name="Спокойствие" tableColumnId="5"/>
       <queryTableField id="6" name="Своевременность" tableColumnId="6"/>
-      <queryTableField id="7" name="Физическое состояние" tableColumnId="1"/>
-      <queryTableField id="8" name="Психологическое состояние" tableColumnId="2"/>
+      <queryTableField id="9" name="Психологическое сост#" tableColumnId="1"/>
+      <queryTableField id="10" name="Физическое сост#" tableColumnId="2"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart$'" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="12">
       <queryTableField id="2" name="февраль" tableColumnId="2"/>
@@ -1774,7 +1774,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with plane$'" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with plane$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="F1" tableColumnId="1"/>
@@ -1796,7 +1796,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with weather$'" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with weather$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="F1" tableColumnId="1"/>
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with daytime$'" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with daytime$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="F1" tableColumnId="1"/>
@@ -1840,10 +1840,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data Name$" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="2">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data Name$" backgroundRefresh="0" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="3">
     <queryTableFields count="1">
-      <queryTableField id="1" name="номер пилота" tableColumnId="1"/>
+      <queryTableField id="2" name="Id пилота" tableColumnId="1"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -1857,8 +1857,8 @@
     <tableColumn id="4" uniqueName="4" name="Скорость реакции" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="Спокойствие" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="Своевременность" queryTableFieldId="6"/>
-    <tableColumn id="1" uniqueName="1" name="Физическое состояние" queryTableFieldId="7"/>
-    <tableColumn id="2" uniqueName="2" name="Психологическое состояние" queryTableFieldId="8"/>
+    <tableColumn id="1" uniqueName="1" name="Психологическое сост#" queryTableFieldId="9"/>
+    <tableColumn id="2" uniqueName="2" name="Физическое сост#" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1955,7 +1955,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица_data_Name" displayName="Таблица_data_Name" ref="C2:C3" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="C2:C3"/>
   <tableColumns count="1">
-    <tableColumn id="1" uniqueName="1" name="номер пилота" queryTableFieldId="1"/>
+    <tableColumn id="1" uniqueName="1" name="Id пилота" queryTableFieldId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2260,17 +2260,19 @@
     <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.21875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2287,30 +2289,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>67.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>63.5</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>58.5</v>
       </c>
       <c r="E2">
-        <v>20.6</v>
+        <v>52</v>
       </c>
       <c r="F2">
-        <v>30.5</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2381,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2435,7 +2437,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2591,7 +2593,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,7 +2749,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2900,57 +2902,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F32"/>
+  <dimension ref="C2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="6" width="62" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C3">
-        <v>123</v>
-      </c>
+    <row r="27" spans="6:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="F27" s="2"/>
     </row>
-    <row r="4" spans="3:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
+    <row r="29" spans="6:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
+    <row r="30" spans="6:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F30" s="3"/>
     </row>
-    <row r="27" spans="5:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="E27" s="2"/>
+    <row r="31" spans="6:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F31" s="3"/>
     </row>
-    <row r="29" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E32" s="3"/>
+    <row r="32" spans="6:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Day 2/results.xlsx
+++ b/Day 2/results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jupyter Notebook\GTeam_Hack\Day 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" activeTab="5"/>
+    <workbookView xWindow="384" yWindow="84" windowWidth="16260" windowHeight="5856" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Radar chart" sheetId="1" r:id="rId1"/>
@@ -28,29 +33,29 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data Name$.odc" keepAlive="1" name="data Name$" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="Name$" commandType="3"/>
+  <connection id="1" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data Name$.odc" keepAlive="1" name="data Name$" type="5" refreshedVersion="6" refreshOnLoad="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Name$" commandType="3"/>
   </connection>
-  <connection id="2" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Radar chart$'.odc" keepAlive="1" name="data 'Radar chart$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Radar chart$'" commandType="3"/>
+  <connection id="2" sourceFile="D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx" keepAlive="1" name="data 'Radar chart$'" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="'Radar chart$'" commandType="3"/>
   </connection>
-  <connection id="3" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with daytime$'.odc" keepAlive="1" name="data 'Trend chart with daytime$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart with daytime$'" commandType="3"/>
+  <connection id="3" sourceFile="D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx" keepAlive="1" name="data 'Trend chart with daytime$'" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="'Trend_chart with daytime$'" commandType="3"/>
   </connection>
-  <connection id="4" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with plane$'.odc" keepAlive="1" name="data 'Trend chart with plane$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart with plane$'" commandType="3"/>
+  <connection id="4" sourceFile="D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx" keepAlive="1" name="data 'Trend chart with plane$'" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="'Trend_chart with plane$'" commandType="3"/>
   </connection>
-  <connection id="5" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart with weather$'.odc" keepAlive="1" name="data 'Trend chart with weather$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart with weather$'" commandType="3"/>
+  <connection id="5" sourceFile="D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx" keepAlive="1" name="data 'Trend chart with weather$'" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="'Trend_chart with weather$'" commandType="3"/>
   </connection>
-  <connection id="6" sourceFile="F:\Projects\bizHack\gteam\Day 2\data.xlsx" odcFile="C:\Users\Katya PC\Documents\Мои источники данных\data 'Trend chart$'.odc" keepAlive="1" name="data 'Trend chart$'" type="5" refreshedVersion="4" refreshOnLoad="1" saveData="1">
-    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=F:\Projects\bizHack\gteam\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False" command="'Trend chart$'" commandType="3"/>
+  <connection id="6" sourceFile="D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx" keepAlive="1" name="data 'Trend chart$'" type="5" refreshedVersion="6" background="1" saveData="1">
+    <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=D:\Jupyter Notebook\GTeam_Hack\Day 2\data.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="Trend_chart$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
   <si>
     <t>Спокойствие</t>
   </si>
@@ -100,24 +105,6 @@
     <t>декабрь</t>
   </si>
   <si>
-    <t>день</t>
-  </si>
-  <si>
-    <t>ночь</t>
-  </si>
-  <si>
-    <t>самолет 1</t>
-  </si>
-  <si>
-    <t>самолет 2</t>
-  </si>
-  <si>
-    <t>хорошие</t>
-  </si>
-  <si>
-    <t>плохие</t>
-  </si>
-  <si>
     <t>Оценка за тренажеры</t>
   </si>
   <si>
@@ -125,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>01#01#2017</t>
   </si>
   <si>
     <t>По результатам лепестковой диаграммы строим тренд оценки летного состава за год в зависимости от скорости реакции, своевременности и спокойствии во время полета.  
@@ -143,11 +127,23 @@
   <si>
     <t>Id пилота</t>
   </si>
+  <si>
+    <t>Хорошие</t>
+  </si>
+  <si>
+    <t>Плохие</t>
+  </si>
+  <si>
+    <t>Светлое</t>
+  </si>
+  <si>
+    <t>Темное</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,12 +219,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -260,7 +259,7 @@
               <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t> модель за декабдь 2017</a:t>
+              <a:t> модель за декабрь 2017</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1400" b="0">
               <a:latin typeface="+mj-lt"/>
@@ -316,26 +315,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>71.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.5</c:v>
+                  <c:v>84.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.5</c:v>
+                  <c:v>79.277777777777771</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.5</c:v>
+                  <c:v>86.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>51.388888888888893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>57.888888888888893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36AE-4824-9776-F6C70B7851B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -356,6 +360,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -400,7 +405,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -426,7 +431,7 @@
               <a:rPr lang="ru-RU" sz="1400" b="0" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t>Тренд оценки по поведеньческой модели </a:t>
+              <a:t>Тренд оценки по поведенческой модели </a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1400" b="0">
               <a:latin typeface="+mj-lt"/>
@@ -497,42 +502,47 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>57.44444444444445</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>61.481481481481488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>74.145833333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>73.982456140350862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80</c:v>
+                  <c:v>82.233333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55</c:v>
+                  <c:v>85.452380952380949</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>78.588235294117638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51</c:v>
+                  <c:v>80.254901960784309</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79</c:v>
+                  <c:v>80.650793650793659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.7</c:v>
+                  <c:v>83.516666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-446F-498E-B7F2-CEBB16C66393}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -542,7 +552,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="616889856"/>
         <c:axId val="616452608"/>
@@ -554,6 +563,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -598,7 +608,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -647,7 +657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>самолет 1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -706,45 +716,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.6</c:v>
+                  <c:v>55.583333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>54.952380952380963</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>62.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>74.037037037037038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>77.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>71.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>80.708333333333329</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>82.476190476190467</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>76.458333333333329</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>85.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>77.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.7</c:v>
+                  <c:v>84.148148148148152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D20-47DF-B9DE-01BEA8337C4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -755,7 +770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>самолет 2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -814,45 +829,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32.6</c:v>
+                  <c:v>46.066666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>60.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>61.138888888888893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>66.962962962962948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>73.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>76.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>83.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>88.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>80.481481481481481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>76.63333333333334</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>83.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.7</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D20-47DF-B9DE-01BEA8337C4A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -862,7 +882,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="617607680"/>
         <c:axId val="616454336"/>
@@ -874,6 +893,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -923,7 +943,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -977,7 +997,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>хорошие</c:v>
+                  <c:v>Хорошие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1036,45 +1056,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.6</c:v>
+                  <c:v>57.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>70.733333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>75.033333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>76.515151515151501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>75.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>79.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>87.458333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>85.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>83.277777777777771</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>82.952380952380963</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.7</c:v>
+                  <c:v>83.851851851851848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-95D0-49BA-AE78-1617B5427E11}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1085,7 +1110,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>плохие</c:v>
+                  <c:v>Плохие</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,45 +1169,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32.6</c:v>
+                  <c:v>48.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.904761904761912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>57.923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>64.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>68.933333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>71.523809523809533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>83.944444444444443</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>82.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>74.727272727272734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>78.606060606060609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>79.499999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.7</c:v>
+                  <c:v>83.242424242424249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-95D0-49BA-AE78-1617B5427E11}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1192,7 +1222,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="617608704"/>
         <c:axId val="618201664"/>
@@ -1204,6 +1233,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1253,7 +1283,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1307,7 +1337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>день</c:v>
+                  <c:v>Светлое</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1366,45 +1396,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>22.6</c:v>
+                  <c:v>62.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>64.111111111111114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>65.472222222222214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>78.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>79.458333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>75.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>84.523809523809533</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>88.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>87.625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>78.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>80.030303030303017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.7</c:v>
+                  <c:v>84.060606060606062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17F9-4137-AB79-1A55EC3F519B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1415,7 +1450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ночь</c:v>
+                  <c:v>Темное</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1474,45 +1509,50 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>32.6</c:v>
+                  <c:v>48.791666666666657</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72</c:v>
+                  <c:v>66.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>68.833333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>73.194444444444443</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55</c:v>
+                  <c:v>81.944444444444443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>70.555555555555557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>81.060606060606062</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79</c:v>
+                  <c:v>81.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>54.7</c:v>
+                  <c:v>82.851851851851848</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17F9-4137-AB79-1A55EC3F519B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1522,7 +1562,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="617609728"/>
         <c:axId val="618203968"/>
@@ -1534,6 +1573,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1738,7 +1778,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Radar chart$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Radar chart$'" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
     <queryTableFields count="6">
       <queryTableField id="3" name="Оценка за тренажеры" tableColumnId="3"/>
@@ -1753,8 +1793,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="14">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart$'" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="15">
     <queryTableFields count="12">
       <queryTableField id="2" name="февраль" tableColumnId="2"/>
       <queryTableField id="3" name="март" tableColumnId="3"/>
@@ -1767,14 +1807,14 @@
       <queryTableField id="10" name="октябрь" tableColumnId="10"/>
       <queryTableField id="11" name="ноябрь" tableColumnId="11"/>
       <queryTableField id="12" name="декабрь" tableColumnId="12"/>
-      <queryTableField id="13" name="01#01#2017" tableColumnId="1"/>
+      <queryTableField id="14" name="январь" tableColumnId="1"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with plane$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with plane$'" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="F1" tableColumnId="1"/>
@@ -1796,7 +1836,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with weather$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with weather$'" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="F1" tableColumnId="1"/>
@@ -1818,7 +1858,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with daytime$'" backgroundRefresh="0" refreshOnLoad="1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data 'Trend chart with daytime$'" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="F1" tableColumnId="1"/>
@@ -1879,7 +1919,7 @@
     <tableColumn id="10" uniqueName="10" name="октябрь" queryTableFieldId="10"/>
     <tableColumn id="11" uniqueName="11" name="ноябрь" queryTableFieldId="11"/>
     <tableColumn id="12" uniqueName="12" name="декабрь" queryTableFieldId="12"/>
-    <tableColumn id="1" uniqueName="1" name="01#01#2017" queryTableFieldId="13"/>
+    <tableColumn id="1" uniqueName="1" name="январь" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2004,7 +2044,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2039,7 +2079,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2277,7 +2317,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2289,30 +2329,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>51</v>
+        <v>71.555555555555557</v>
       </c>
       <c r="B2">
-        <v>67.5</v>
+        <v>84.111111111111114</v>
       </c>
       <c r="C2">
-        <v>63.5</v>
+        <v>79.277777777777771</v>
       </c>
       <c r="D2">
-        <v>58.5</v>
+        <v>86.111111111111114</v>
       </c>
       <c r="E2">
-        <v>52</v>
+        <v>51.388888888888893</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>57.888888888888893</v>
       </c>
     </row>
   </sheetData>
@@ -2333,19 +2373,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2383,45 +2416,45 @@
         <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>60</v>
+        <v>57.44444444444445</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>61.481481481481488</v>
       </c>
       <c r="C2">
-        <v>71</v>
+        <v>70.5</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>74.145833333333329</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>73.982456140350862</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>82.233333333333334</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>85.452380952380949</v>
       </c>
       <c r="H2">
-        <v>58</v>
+        <v>78.588235294117638</v>
       </c>
       <c r="I2">
-        <v>51</v>
+        <v>80.254901960784309</v>
       </c>
       <c r="J2">
-        <v>79</v>
+        <v>80.650793650793659</v>
       </c>
       <c r="K2">
-        <v>54.7</v>
+        <v>83.516666666666666</v>
       </c>
       <c r="L2">
-        <v>22.6</v>
+        <v>50.296296296296298</v>
       </c>
     </row>
   </sheetData>
@@ -2442,19 +2475,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2499,85 +2521,85 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>22.6</v>
+        <v>55.583333333333343</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>54.952380952380963</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>62.166666666666657</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>74.037037037037038</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>77.333333333333329</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>71.666666666666671</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>80.708333333333329</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>82.476190476190467</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>76.458333333333329</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>85.428571428571431</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>77.666666666666671</v>
       </c>
       <c r="M2">
-        <v>54.7</v>
+        <v>84.148148148148152</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>32.6</v>
+        <v>46.066666666666663</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>60.933333333333337</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>61.138888888888893</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>66.962962962962948</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>73.083333333333329</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>76.555555555555557</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>83.25</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>88.428571428571431</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>80.481481481481481</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>76.63333333333334</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>83.933333333333337</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2598,19 +2620,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2656,84 +2669,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>22.6</v>
+        <v>57.166666666666657</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>70.733333333333334</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>75.033333333333331</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>76.515151515151501</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>75.416666666666671</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>79.666666666666671</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>87.458333333333329</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>85.666666666666671</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>83.277777777777771</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>82.952380952380963</v>
       </c>
       <c r="M2">
-        <v>54.7</v>
+        <v>83.851851851851848</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>32.6</v>
+        <v>48.333333333333343</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>50.904761904761912</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>57.923076923076927</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>64.833333333333329</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>68.933333333333337</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>71.523809523809533</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>83.944444444444443</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>82.777777777777786</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>74.727272727272734</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>78.606060606060609</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>79.499999999999986</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
+        <v>83.242424242424249</v>
       </c>
     </row>
   </sheetData>
@@ -2754,19 +2767,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -2812,84 +2814,84 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>22.6</v>
+        <v>62.333333333333343</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>64.111111111111114</v>
       </c>
       <c r="D2">
-        <v>66</v>
+        <v>65.472222222222214</v>
       </c>
       <c r="E2">
-        <v>71</v>
+        <v>78.666666666666671</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>79.458333333333329</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>75.333333333333329</v>
       </c>
       <c r="H2">
-        <v>80</v>
+        <v>84.523809523809533</v>
       </c>
       <c r="I2">
-        <v>55</v>
+        <v>88.083333333333329</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>87.625</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>78.777777777777786</v>
       </c>
       <c r="L2">
-        <v>79</v>
+        <v>80.030303030303017</v>
       </c>
       <c r="M2">
-        <v>54.7</v>
+        <v>84.060606060606062</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>32.6</v>
+        <v>48.791666666666657</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>50.777777777777779</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>53.5</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>66.416666666666671</v>
       </c>
       <c r="F3">
-        <v>75</v>
+        <v>68.833333333333329</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>73.194444444444443</v>
       </c>
       <c r="H3">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I3">
-        <v>55</v>
+        <v>81.944444444444443</v>
       </c>
       <c r="J3">
-        <v>58</v>
+        <v>70.555555555555557</v>
       </c>
       <c r="K3">
-        <v>51</v>
+        <v>81.060606060606062</v>
       </c>
       <c r="L3">
-        <v>79</v>
+        <v>81.333333333333329</v>
       </c>
       <c r="M3">
-        <v>54.7</v>
+        <v>82.851851851851848</v>
       </c>
     </row>
   </sheetData>
@@ -2904,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,25 +2921,25 @@
   <sheetData>
     <row r="2" spans="3:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
       <c r="F5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="6:6" ht="18" x14ac:dyDescent="0.35">
